--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,42 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>shorts</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>25</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>111111111111</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>bigger shorts</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>222222222222</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4.99</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,38 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>bigger shorts</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>111111111111</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>shorts</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>222222222222</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -458,33 +458,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bigger shorts</t>
+          <t>shorts</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>111111111111</v>
       </c>
       <c r="D2" t="n">
-        <v>4.55</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>shorts</t>
+          <t>bigger shorts</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>222222222222</v>
       </c>
       <c r="D3" t="n">
-        <v>9.99</v>
+        <v>2.99</v>
       </c>
     </row>
   </sheetData>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,38 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>shorts</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>111111111111</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.99</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>bigger shorts</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>222222222222</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.99</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/inventory.xlsx
+++ b/data/inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -471,6 +471,24 @@
       </c>
       <c r="D2" t="n">
         <v>9.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>shorts</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>345343245654</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2.99</v>
       </c>
     </row>
   </sheetData>
